--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689031.9092279603</v>
+        <v>716379.1415249447</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>52.42556848774763</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.583694061602047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.96396779500064</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>69.05674881342119</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>72.35588006934914</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.809496073036132</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1452,22 +1452,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>62.82409118961541</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1743,16 +1743,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>32.94517566205834</v>
+        <v>165.5971668681845</v>
       </c>
     </row>
     <row r="16">
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.30348359856715</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
@@ -1904,13 +1904,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.83710273534405</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>140.3787069980184</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,25 +2084,25 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>91.56533252450008</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>84.56713651463404</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,73 +2318,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>50.46697834767995</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>11.39124070095735</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>138.2977384322888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="Y26" t="n">
         <v>241.014288877659</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>94.41048699370593</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>183.2346997636955</v>
       </c>
       <c r="V27" t="n">
-        <v>68.32700915226137</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G29" t="n">
-        <v>202.2946864288972</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>212.2853856434422</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2868,31 +2868,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>63.1601700331927</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2853856434421</v>
+        <v>142.8673256144868</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>109.944646380695</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>16.54418549352953</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3269,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>91.10663889794469</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>123.9809112256319</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G38" t="n">
-        <v>202.2946864288972</v>
+        <v>212.285385643442</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>124.5388004963448</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>37.18676625519261</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E41" t="n">
-        <v>212.2853856434421</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="42">
@@ -3828,16 +3828,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>81.96584385420452</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>124.4666106363195</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>116.3250987681108</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.9060370580465</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C3" t="n">
-        <v>327.4530077769195</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D3" t="n">
-        <v>178.5185981156682</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4449,10 +4449,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>670.1213740781145</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
         <v>136.0777814360265</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E5" t="n">
-        <v>802.5825927271064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F5" t="n">
-        <v>559.1338160830064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G5" t="n">
-        <v>315.6850394389064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="H5" t="n">
-        <v>72.23626279480629</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787.171420448546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4647,13 +4647,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
         <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>955.386757468614</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
         <v>136.0777814360265</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y8" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>426.8125075943781</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C9" t="n">
-        <v>252.3594783132511</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D9" t="n">
-        <v>252.3594783132511</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E9" t="n">
-        <v>93.12202330779556</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F9" t="n">
-        <v>93.12202330779556</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>426.8125075943781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>426.8125075943781</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4987,25 +4987,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C11" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D11" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5121,49 +5121,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="13">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5306,22 +5306,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>762.5638632763679</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C15" t="n">
-        <v>588.1108339952409</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D15" t="n">
-        <v>439.1764243339896</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E15" t="n">
-        <v>279.9389693285341</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F15" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G15" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5364,10 +5364,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5391,16 +5391,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y15" t="n">
-        <v>930.7792002964359</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="16">
@@ -5434,7 +5434,7 @@
         <v>64.03213664411894</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5534,28 +5534,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
         <v>19.28114311021272</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>795.8418184905681</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C18" t="n">
-        <v>621.3887892094411</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D18" t="n">
-        <v>472.4543795481899</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>313.2169245427344</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>166.6823665696193</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>27.95154115223485</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
-        <v>27.95154115223485</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,49 +5595,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>345.4870131375847</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="19">
@@ -5701,13 +5701,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="C20" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="D20" t="n">
-        <v>710.516763498309</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="E20" t="n">
-        <v>710.516763498309</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="F20" t="n">
-        <v>467.067986854209</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5762,40 +5762,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="Y20" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424089</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>259.0600686093459</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C21" t="n">
-        <v>259.0600686093459</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D21" t="n">
-        <v>259.0600686093459</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E21" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F21" t="n">
-        <v>112.5255106362308</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5841,40 +5841,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093459</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="X21" t="n">
-        <v>259.0600686093459</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="Y21" t="n">
-        <v>259.0600686093459</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="22">
@@ -5935,7 +5935,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>179.2727307684539</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C24" t="n">
-        <v>179.2727307684539</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D24" t="n">
-        <v>179.2727307684539</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F24" t="n">
         <v>20.03527576299844</v>
@@ -6072,46 +6072,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>851.3813223251811</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="V24" t="n">
-        <v>562.4161926976942</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="W24" t="n">
-        <v>318.9674160535941</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="X24" t="n">
-        <v>318.9674160535941</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="Y24" t="n">
-        <v>179.2727307684539</v>
+        <v>649.1947276839472</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
         <v>19.28114311021272</v>
@@ -6178,19 +6178,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>601.5428246748834</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="C26" t="n">
-        <v>601.5428246748834</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D26" t="n">
-        <v>601.5428246748834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>358.0940480307834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>358.0940480307834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>114.6452713866834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>114.6452713866834</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.057155510636</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953333</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748834</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T26" t="n">
-        <v>601.5428246748834</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U26" t="n">
-        <v>601.5428246748834</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V26" t="n">
-        <v>601.5428246748834</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W26" t="n">
-        <v>601.5428246748834</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X26" t="n">
-        <v>601.5428246748834</v>
+        <v>720.608378866536</v>
       </c>
       <c r="Y26" t="n">
-        <v>601.5428246748834</v>
+        <v>477.159602222436</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>256.869462878957</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C27" t="n">
-        <v>256.869462878957</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>256.869462878957</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>256.869462878957</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6309,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>65.60123993063792</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195203</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
-        <v>542.8095319084027</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972852</v>
+        <v>726.4525409563266</v>
       </c>
       <c r="P27" t="n">
-        <v>964.057155510636</v>
+        <v>909.0960185696774</v>
       </c>
       <c r="Q27" t="n">
         <v>964.057155510636</v>
@@ -6330,25 +6330,25 @@
         <v>964.057155510636</v>
       </c>
       <c r="S27" t="n">
-        <v>964.057155510636</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="T27" t="n">
-        <v>761.870560869402</v>
+        <v>588.4532163200709</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057911</v>
+        <v>403.3676610032067</v>
       </c>
       <c r="V27" t="n">
-        <v>464.6297616439109</v>
+        <v>168.215552771464</v>
       </c>
       <c r="W27" t="n">
-        <v>464.6297616439109</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X27" t="n">
-        <v>464.6297616439109</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y27" t="n">
-        <v>256.869462878957</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="28">
@@ -6409,7 +6409,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C29" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="D29" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="E29" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F29" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="Y29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.6274730425127</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>641.7054013000536</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>482.4679462945981</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>335.9333883214831</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>197.2025629040986</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>83.83342731167794</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6546,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.38115216564972</v>
+        <v>790.6398109613049</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>756.2056553051034</v>
+        <v>622.4244739412368</v>
       </c>
       <c r="C33" t="n">
-        <v>581.7526260239764</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="D33" t="n">
-        <v>432.8182163627251</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E33" t="n">
-        <v>273.5807613572696</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F33" t="n">
-        <v>127.0462033841546</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>127.0462033841546</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
         <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084243</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="X33" t="n">
-        <v>756.2056553051034</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="Y33" t="n">
-        <v>756.2056553051034</v>
+        <v>790.6398109613049</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.608378866536</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.608378866536</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.159602222436</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.710825578336</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6947,40 +6947,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>111.3080510879346</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>111.3080510879346</v>
       </c>
       <c r="D36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729566</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729566</v>
       </c>
       <c r="V36" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729566</v>
       </c>
       <c r="W36" t="n">
-        <v>318.9674160535941</v>
+        <v>487.2836868729566</v>
       </c>
       <c r="X36" t="n">
-        <v>318.9674160535941</v>
+        <v>487.2836868729566</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>279.5233881080027</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>467.067986854209</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C38" t="n">
-        <v>223.6192102101089</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D38" t="n">
-        <v>223.6192102101089</v>
+        <v>720.608378866536</v>
       </c>
       <c r="E38" t="n">
-        <v>223.6192102101089</v>
+        <v>477.159602222436</v>
       </c>
       <c r="F38" t="n">
-        <v>223.6192102101089</v>
+        <v>233.710825578336</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7172,52 +7172,52 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021253</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211349</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>145.0779112883388</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>825.3252359067615</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>825.3252359067615</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>597.1016176431506</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="W39" t="n">
-        <v>728.9050472788936</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X39" t="n">
-        <v>521.0535470733607</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y39" t="n">
-        <v>313.2932483084068</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.7108255783361</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="C41" t="n">
-        <v>233.7108255783361</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="D41" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7424,37 +7424,37 @@
         <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>710.5167634983089</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>179.2727307684539</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="C42" t="n">
-        <v>179.2727307684539</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="D42" t="n">
-        <v>179.2727307684539</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>501.4635764168323</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>354.9290184437173</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>216.1981930263328</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>102.8290574339121</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117118</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195203</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="U42" t="n">
-        <v>838.3333063830407</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="V42" t="n">
-        <v>838.3333063830407</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="W42" t="n">
-        <v>594.8845297389407</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="X42" t="n">
-        <v>387.0330295334078</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="Y42" t="n">
-        <v>179.2727307684539</v>
+        <v>660.7010314222878</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7591,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7652,46 +7652,46 @@
         <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512332</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512332</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512332</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512332</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071332</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>136.7812428759812</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>136.7812428759812</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>136.7812428759812</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7734,43 +7734,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>720.608378866536</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>512.7568786610032</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>304.9965798960492</v>
       </c>
     </row>
     <row r="46">
@@ -7825,22 +7825,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8070,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133073</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493022</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>185.3423563661622</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996773</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,22 +10194,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493022</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612552</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,16 +10905,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133071</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147211</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11382,13 +11382,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493022</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22556,10 +22556,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>20.33988403799381</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22635,16 +22635,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22689,10 +22689,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>120.4592573625853</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22793,16 +22793,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>158.0503210826583</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22826,19 +22826,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22860,22 +22860,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22914,22 +22914,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>197.0990017157023</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22981,10 +22981,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23021,25 +23021,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23063,13 +23063,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23081,7 +23081,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,31 +23097,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>64.98763709386149</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23154,7 +23154,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,7 +23163,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,7 +23197,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23227,7 +23227,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23276,10 +23276,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.181203141508671</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23340,22 +23340,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>94.82098926578553</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23495,7 +23495,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,13 +23504,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23546,16 +23546,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23631,16 +23631,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>172.737520115246</v>
+        <v>40.08552890911983</v>
       </c>
     </row>
     <row r="16">
@@ -23674,10 +23674,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.05569651810563</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23774,16 +23774,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
@@ -23792,13 +23792,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>291.8274516623475</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>81.55953011607103</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23941,7 +23941,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,25 +23972,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>45.77818463871056</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>15.59069763800909</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,10 +24175,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24206,10 +24206,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,19 +24260,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>200.8786745601566</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,16 +24285,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>160.2919304028805</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>67.38495734501555</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>116.0654025767</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24488,10 +24488,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="27">
@@ -24525,13 +24525,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24540,10 +24540,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,16 +24570,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>42.70668231727933</v>
       </c>
       <c r="V27" t="n">
-        <v>164.4735779971639</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24649,10 +24649,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>213.0080510862378</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,7 +24734,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>39.06026726439427</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24756,31 +24756,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>136.7341746849847</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>26.23646281822238</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,22 +24807,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,16 +24926,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>196.6074765012803</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24962,13 +24962,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24993,25 +24993,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>62.76385260762076</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>95.69125874296694</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25044,7 +25044,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25059,7 +25059,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25157,19 +25157,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>127.1894164723251</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25208,19 +25208,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>56.33842666669406</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>81.7017845516725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25354,10 +25354,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>213.0080510862378</v>
+        <v>203.0173518716931</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,7 +25470,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>48.16969849197095</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>134.4964048486452</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,10 +25533,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25567,7 +25567,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E41" t="n">
-        <v>169.6449844288197</v>
+        <v>191.5849729979771</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="42">
@@ -25716,16 +25716,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>7.430788997210556</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>101.4747714446553</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>289.0078237680873</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V44" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25950,7 +25950,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>41.31998168729015</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26065,10 +26065,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611642</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>456941.8494611642</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="5">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611642</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="G4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="P4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7878.313774060334</v>
+        <v>-4609.728394514081</v>
       </c>
       <c r="C6" t="n">
-        <v>72891.1177574874</v>
+        <v>76159.70313703368</v>
       </c>
       <c r="D6" t="n">
-        <v>72891.11775748737</v>
+        <v>76159.70313703363</v>
       </c>
       <c r="E6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="F6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="G6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="H6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="I6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="J6" t="n">
-        <v>43458.77515838119</v>
+        <v>46727.36053792745</v>
       </c>
       <c r="K6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="L6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="M6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="N6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="O6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="P6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370336</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26805,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26814,22 +26814,22 @@
         <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>99.81127712997396</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659689</v>
       </c>
       <c r="O21" t="n">
-        <v>55.51629994036219</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>46.78797658628807</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.014288877659</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659689</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792193</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N36" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997385</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410584</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38020,7 +38020,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>181.894799580463</v>
       </c>
       <c r="M44" t="n">
         <v>219.1673002655598</v>
@@ -38102,13 +38102,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>240.0046611659691</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659689</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653006.5266837372</v>
+        <v>718344.3217832244</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199406.4221477695</v>
+        <v>314879.9422366601</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>12105624.27530281</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8218487.197793873</v>
+        <v>7663114.164145632</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>102.9664640366239</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>145.4287699906872</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>162.5320513878378</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,65 +1132,65 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19.7279353865638</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>131.8562746194806</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>144.2395975293023</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>296.4738938526975</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>144.1388525024535</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>105.3830043755882</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="X13" t="n">
-        <v>85.87170836083649</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,28 +1609,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G14" t="n">
-        <v>245.9196712349435</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>227.7664834517758</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>158.6126308574896</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.06613335611762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>66.20842134438098</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>115.3010325189714</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>160.3349025342645</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>155.4526127311942</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>143.4822953483834</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>83.86072278346451</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>68.49439899867225</v>
+        <v>15.67129869336543</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>245.9196712349435</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>107.3013038024369</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T24" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U24" t="n">
         <v>225.8879277888686</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>89.06613335611762</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>67.17737911999795</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>13.16208281464279</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>331.8136285424027</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>226.9736586744963</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>353.0598453382183</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>71.70044599118988</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>136.128638728132</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>59.72683757586885</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>201.0308252366771</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>28.71462267227981</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>55.66811582074952</v>
+        <v>47.14167849255922</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>55.80992274066671</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>95.72893988140608</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>89.06613335611762</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>136.1489602325995</v>
+        <v>37.24325969548708</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>33.84234274505293</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>312.9807318302826</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>196.8191419615484</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>50.4315177721688</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>234.487181379049</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>248.8850931379797</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -4033,19 +4033,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.35032698453939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="X46" t="n">
-        <v>203.1609600883623</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4369,13 +4369,13 @@
         <v>812.6742080953335</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W3" t="n">
-        <v>298.4948343740486</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X3" t="n">
-        <v>194.4883050441255</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4515,10 +4515,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E5" t="n">
-        <v>569.2254314512334</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F5" t="n">
-        <v>325.7766548071333</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G5" t="n">
-        <v>82.32787816303323</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1594080452955</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>588.9357897816847</v>
       </c>
       <c r="V6" t="n">
-        <v>470.4902185192667</v>
+        <v>353.783681549942</v>
       </c>
       <c r="W6" t="n">
-        <v>227.0414418751666</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4752,10 +4752,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4834,22 +4834,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
         <v>19.28114311021272</v>
@@ -4892,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>644.9432478003937</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>644.9432478003937</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W9" t="n">
-        <v>401.4944711562937</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X9" t="n">
-        <v>401.4944711562937</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y9" t="n">
-        <v>193.7341723913397</v>
+        <v>152.4692992915062</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1568.149526959219</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="C11" t="n">
-        <v>1568.149526959219</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>495.9595608383935</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="V11" t="n">
-        <v>2311.057514205145</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="W11" t="n">
-        <v>1958.288858935031</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="X11" t="n">
-        <v>1958.288858935031</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="Y11" t="n">
-        <v>1568.149526959219</v>
+        <v>761.8606052340162</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>90.99411982030574</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>351.6037334324557</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>612.2133470446056</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>860.9667611285678</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>946.5206566394056</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>718.3003278816104</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>483.1482196498678</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>228.9108629216662</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>351.9727148150933</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C13" t="n">
-        <v>351.9727148150933</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D13" t="n">
-        <v>201.8560754027576</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694736</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X13" t="n">
-        <v>351.9727148150933</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y13" t="n">
-        <v>351.9727148150933</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2307.009759042411</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="C14" t="n">
-        <v>1938.047242101999</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.781543495249</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="E14" t="n">
-        <v>1193.993290897004</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="F14" t="n">
-        <v>783.0073861073968</v>
+        <v>291.098892013627</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="Y14" t="n">
-        <v>2307.009759042411</v>
+        <v>556.9999364092498</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>195.5123919972604</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>394.933760794076</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>394.933760794076</v>
       </c>
       <c r="N15" t="n">
-        <v>1851.37379586972</v>
+        <v>612.2133470446056</v>
       </c>
       <c r="O15" t="n">
-        <v>2291.509718890064</v>
+        <v>860.9667611285678</v>
       </c>
       <c r="P15" t="n">
-        <v>2627.754532504893</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>892.7533571627375</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>657.6012489309949</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>403.3638922027932</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>195.5123919972604</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>195.5123919972604</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348.7460229006679</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C16" t="n">
-        <v>348.7460229006679</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D16" t="n">
-        <v>348.7460229006679</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E16" t="n">
-        <v>200.8329293182748</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W16" t="n">
-        <v>438.7118141694736</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X16" t="n">
-        <v>438.7118141694736</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y16" t="n">
-        <v>348.7460229006679</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1447.000728742896</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="C17" t="n">
-        <v>1078.038211802485</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D17" t="n">
-        <v>1078.038211802485</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E17" t="n">
-        <v>692.2499592042404</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F17" t="n">
         <v>625.3727659270879</v>
@@ -5512,55 +5512,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2520.971603332393</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>2189.908715988822</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W17" t="n">
-        <v>1837.140060718708</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X17" t="n">
-        <v>1837.140060718708</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="Y17" t="n">
-        <v>1447.000728742896</v>
+        <v>1369.426717132083</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5606,16 +5606,16 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5639,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1386.090004781549</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C20" t="n">
-        <v>1241.158393318536</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2557.412600757337</v>
       </c>
       <c r="U20" t="n">
-        <v>2443.387305656314</v>
+        <v>2303.650815395429</v>
       </c>
       <c r="V20" t="n">
-        <v>2112.324418312743</v>
+        <v>1972.587928051858</v>
       </c>
       <c r="W20" t="n">
-        <v>1759.555763042629</v>
+        <v>1972.587928051858</v>
       </c>
       <c r="X20" t="n">
-        <v>1386.090004781549</v>
+        <v>1599.122169790778</v>
       </c>
       <c r="Y20" t="n">
-        <v>1386.090004781549</v>
+        <v>1208.982837814967</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5843,13 +5843,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.9553738610022</v>
+        <v>69.77257646012751</v>
       </c>
       <c r="C22" t="n">
-        <v>270.0191909330953</v>
+        <v>69.77257646012751</v>
       </c>
       <c r="D22" t="n">
-        <v>270.0191909330953</v>
+        <v>69.77257646012751</v>
       </c>
       <c r="E22" t="n">
-        <v>270.0191909330953</v>
+        <v>69.77257646012751</v>
       </c>
       <c r="F22" t="n">
-        <v>123.1292434351849</v>
+        <v>69.77257646012751</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V22" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W22" t="n">
-        <v>438.9553738610022</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X22" t="n">
-        <v>438.9553738610022</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y22" t="n">
-        <v>438.9553738610022</v>
+        <v>69.77257646012751</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2307.009759042411</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C23" t="n">
-        <v>1938.047242101999</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D23" t="n">
-        <v>1579.781543495249</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>1193.993290897004</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>783.0073861073968</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018222</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042411</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6086,7 +6086,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6098,13 +6098,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6126,19 +6126,19 @@
         <v>438.7118141694736</v>
       </c>
       <c r="C25" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D25" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>121.7989203254129</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1435.441956461044</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C26" t="n">
         <v>1422.14692331494</v>
@@ -6223,22 +6223,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V26" t="n">
-        <v>2212.181128500977</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W26" t="n">
-        <v>2212.181128500977</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="X26" t="n">
-        <v>2212.181128500977</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y26" t="n">
-        <v>1822.041796525165</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6332,16 +6332,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U27" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207637</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>498.8626623130036</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="C28" t="n">
-        <v>498.8626623130036</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D28" t="n">
-        <v>348.7460229006679</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6414,22 +6414,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="W28" t="n">
-        <v>498.8626623130036</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="X28" t="n">
-        <v>498.8626623130036</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="Y28" t="n">
-        <v>498.8626623130036</v>
+        <v>635.1915732143555</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1392.984777118936</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="C29" t="n">
-        <v>1036.358670716696</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="D29" t="n">
-        <v>1036.358670716696</v>
+        <v>1282.512107596176</v>
       </c>
       <c r="E29" t="n">
-        <v>1036.358670716696</v>
+        <v>1282.512107596176</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>871.5262028065686</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>453.5623947047554</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>126.3676747407583</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V29" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W29" t="n">
-        <v>2169.72394915887</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X29" t="n">
-        <v>2169.72394915887</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="Y29" t="n">
-        <v>1779.584617183058</v>
+        <v>1640.777806202927</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C31" t="n">
-        <v>507.3364050629041</v>
+        <v>559.1928012785278</v>
       </c>
       <c r="D31" t="n">
-        <v>507.3364050629041</v>
+        <v>409.076161866192</v>
       </c>
       <c r="E31" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837989</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858886</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858886</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858886</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1637.643464250441</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C32" t="n">
-        <v>1268.68094731003</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2668.144421652283</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2668.144421652283</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2668.144421652283</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2414.382636290375</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V32" t="n">
-        <v>2414.382636290375</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W32" t="n">
-        <v>2414.382636290375</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X32" t="n">
-        <v>2414.382636290375</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y32" t="n">
-        <v>2024.243304314563</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M33" t="n">
         <v>1313.210296315296</v>
@@ -6794,13 +6794,13 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>257.0633493392339</v>
+        <v>546.4805193761948</v>
       </c>
       <c r="C34" t="n">
-        <v>257.0633493392339</v>
+        <v>546.4805193761948</v>
       </c>
       <c r="D34" t="n">
-        <v>257.0633493392339</v>
+        <v>396.3638799638591</v>
       </c>
       <c r="E34" t="n">
-        <v>257.0633493392339</v>
+        <v>248.4507863814659</v>
       </c>
       <c r="F34" t="n">
-        <v>110.1734018413236</v>
+        <v>101.5608388835556</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X34" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y34" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>850.7171392082162</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C35" t="n">
-        <v>850.7171392082162</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082162</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6967,22 +6967,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2585.746742214709</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U35" t="n">
-        <v>2331.9849568528</v>
+        <v>2326.789835650672</v>
       </c>
       <c r="V35" t="n">
-        <v>2000.922069509229</v>
+        <v>1995.726948307101</v>
       </c>
       <c r="W35" t="n">
-        <v>2000.922069509229</v>
+        <v>1642.958293036987</v>
       </c>
       <c r="X35" t="n">
-        <v>1627.45631124815</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y35" t="n">
-        <v>1237.316979272338</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7031,10 +7031,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7061,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1568.353113282533</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C38" t="n">
-        <v>1568.353113282533</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D38" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E38" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7174,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2328.418711607735</v>
+        <v>2385.866280282913</v>
       </c>
       <c r="V38" t="n">
-        <v>2328.418711607735</v>
+        <v>2385.866280282913</v>
       </c>
       <c r="W38" t="n">
-        <v>2328.418711607735</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X38" t="n">
-        <v>1954.952953346655</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y38" t="n">
-        <v>1954.952953346655</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7259,37 +7259,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>257.0633493392339</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="C40" t="n">
-        <v>88.12716641132701</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="D40" t="n">
-        <v>88.12716641132701</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E40" t="n">
-        <v>88.12716641132701</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="W40" t="n">
-        <v>438.7118141694736</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="X40" t="n">
-        <v>438.7118141694736</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="Y40" t="n">
-        <v>438.7118141694736</v>
+        <v>675.4941957298054</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1268.68094731003</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036446</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V41" t="n">
-        <v>2311.057514205145</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W41" t="n">
-        <v>1958.288858935031</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="X41" t="n">
-        <v>1584.823100673951</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="Y41" t="n">
-        <v>1584.823100673951</v>
+        <v>1794.682881376601</v>
       </c>
     </row>
     <row r="42">
@@ -7502,10 +7502,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>201.8560754027576</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="C43" t="n">
-        <v>201.8560754027576</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="D43" t="n">
-        <v>201.8560754027576</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036446</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U43" t="n">
-        <v>491.2732454397182</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V43" t="n">
-        <v>491.2732454397182</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W43" t="n">
-        <v>201.8560754027576</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X43" t="n">
-        <v>201.8560754027576</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y43" t="n">
-        <v>201.8560754027576</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1610.120910258947</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C44" t="n">
-        <v>1241.158393318536</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D44" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
         <v>882.8926947117852</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7681,19 +7681,19 @@
         <v>2247.308246834949</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.546461473041</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V44" t="n">
-        <v>1993.546461473041</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W44" t="n">
-        <v>1640.777806202927</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X44" t="n">
-        <v>1640.777806202927</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y44" t="n">
-        <v>1610.120910258947</v>
+        <v>2247.308246834949</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036446</v>
@@ -7772,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7812,40 +7812,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>513.840561024597</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U46" t="n">
-        <v>513.840561024597</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V46" t="n">
-        <v>259.1560728187102</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W46" t="n">
-        <v>259.1560728187102</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
         <v>53.94298182036446</v>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8075,10 +8075,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>205.2654297429789</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>405.3760678736849</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>394.5837460349999</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>350.8160416293229</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,16 +22549,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22609,7 +22609,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>286.8247010151207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>35.02723208740593</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>102.8065211668536</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22755,13 +22755,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>277.0585344134748</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>54.73595870413436</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>70.26853576158751</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22992,13 +22992,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>387.1481103551477</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23074,10 +23074,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>34.67690903038678</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23153,16 +23153,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>81.70178455167255</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23263,25 +23263,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>58.20914776798543</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>62.7730061974593</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>94.58220263348665</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23421,28 +23421,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>126.6879292296161</v>
       </c>
       <c r="X13" t="n">
-        <v>139.8379470282007</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G14" t="n">
-        <v>167.8644987858515</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>23.57176816715642</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>67.32549461272768</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23661,25 +23661,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>126.6879292296161</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.5185199959772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,16 +23734,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>340.6676243973304</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>254.4300681594977</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>6.911918564363361</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>45.199959188537</v>
@@ -23943,10 +23943,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>69.58249272689005</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>221.7905964226242</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>132.5875975741933</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>98.81540326037866</v>
+        <v>151.6385035656855</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,19 +24183,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>167.8644987858515</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>278.9366348536167</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>78.18068774251022</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>88.9935097217972</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>352.1108089563647</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>17.42734017501027</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24621,7 +24621,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24654,7 +24654,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>133.0270685759263</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>59.54933966209472</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>12.21304643278921</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>80.23087025367131</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>10.30532391843713</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>75.23878421646938</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>181.7030164268034</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>25.7637799025319</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>111.6416864383014</v>
+        <v>120.1681237664917</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25207,22 +25207,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>160.6383976169911</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>155.4952276268832</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>78.18068774251022</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,10 +25368,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>115.0752072756898</v>
+        <v>213.9809078128022</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>111.5787052778783</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>172.9266648662215</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>69.75310983319798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>168.4537498094592</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>84.53410402016942</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>51.79469286292874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>133.8487485255009</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>355.8876116715142</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="X46" t="n">
-        <v>22.54869530067489</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795169.6775433336</v>
+        <v>476685.4141087435</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795169.6775433335</v>
+        <v>476685.4141087438</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795169.6775433335</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>795169.6775433336</v>
+        <v>795169.6775433337</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>795169.6775433335</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>795169.6775433335</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>795169.6775433336</v>
+        <v>795169.6775433337</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>795169.6775433337</v>
+        <v>795169.6775433335</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>124620.5043984993</v>
       </c>
       <c r="E2" t="n">
-        <v>216864.4575118182</v>
+        <v>130005.1129387482</v>
       </c>
       <c r="F2" t="n">
-        <v>216864.4575118182</v>
+        <v>130005.1129387482</v>
       </c>
       <c r="G2" t="n">
         <v>216864.4575118182</v>
@@ -26334,7 +26334,7 @@
         <v>216864.4575118182</v>
       </c>
       <c r="I2" t="n">
-        <v>216864.4575118182</v>
+        <v>216864.4575118181</v>
       </c>
       <c r="J2" t="n">
         <v>216864.4575118182</v>
@@ -26343,10 +26343,10 @@
         <v>216864.4575118182</v>
       </c>
       <c r="L2" t="n">
-        <v>216864.4575118182</v>
+        <v>216864.4575118183</v>
       </c>
       <c r="M2" t="n">
-        <v>216864.4575118181</v>
+        <v>216864.4575118183</v>
       </c>
       <c r="N2" t="n">
         <v>216864.4575118182</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>25125.73635942167</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>388459.5166734361</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>5539.242983422976</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>98918.44776315408</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>513.1084990597035</v>
+        <v>196.6176664714447</v>
       </c>
       <c r="F4" t="n">
-        <v>513.1084990597035</v>
+        <v>196.6176664714447</v>
       </c>
       <c r="G4" t="n">
         <v>513.1084990597035</v>
@@ -26444,13 +26444,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26478,13 +26478,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>16506.80740683334</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16506.80740683334</v>
+      </c>
+      <c r="G5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="F5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26496,13 +26496,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16827.73901455453</v>
+        <v>-5831.529456518156</v>
       </c>
       <c r="C6" t="n">
-        <v>63941.69251699318</v>
+        <v>74937.9020750296</v>
       </c>
       <c r="D6" t="n">
-        <v>63941.69251699319</v>
+        <v>74937.9020750296</v>
       </c>
       <c r="E6" t="n">
-        <v>-271794.7168394662</v>
+        <v>86990.047834286</v>
       </c>
       <c r="F6" t="n">
-        <v>161051.4572035297</v>
+        <v>112115.7841937077</v>
       </c>
       <c r="G6" t="n">
-        <v>161051.4572035298</v>
+        <v>-221946.487098669</v>
       </c>
       <c r="H6" t="n">
-        <v>161051.4572035297</v>
+        <v>166513.0295747671</v>
       </c>
       <c r="I6" t="n">
-        <v>161051.4572035297</v>
+        <v>166513.029574767</v>
       </c>
       <c r="J6" t="n">
-        <v>97991.51460442354</v>
+        <v>103453.0869756609</v>
       </c>
       <c r="K6" t="n">
-        <v>161051.4572035298</v>
+        <v>166513.029574767</v>
       </c>
       <c r="L6" t="n">
-        <v>161051.4572035298</v>
+        <v>166513.0295747672</v>
       </c>
       <c r="M6" t="n">
-        <v>53078.09652947162</v>
+        <v>160973.7865913442</v>
       </c>
       <c r="N6" t="n">
-        <v>161051.4572035299</v>
+        <v>166513.0295747671</v>
       </c>
       <c r="O6" t="n">
-        <v>161051.4572035298</v>
+        <v>67594.58181161307</v>
       </c>
       <c r="P6" t="n">
-        <v>161051.4572035297</v>
+        <v>166513.0295747671</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26764,22 +26764,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>263.2420339516666</v>
+      </c>
+      <c r="F4" t="n">
+        <v>263.2420339516666</v>
+      </c>
+      <c r="G4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26813,16 +26813,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>354.7302815302972</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>22.22774507400754</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>411.045238802889</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>22.22774507400754</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>411.0452388028891</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>22.22774507400754</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>411.045238802889</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>195.5988322391985</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,7 +32326,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
         <v>193.3156655923047</v>
@@ -32335,7 +32335,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034982</v>
@@ -32563,7 +32563,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>195.5988322391985</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
         <v>193.3156655923047</v>
@@ -32806,10 +32806,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034982</v>
@@ -33043,7 +33043,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>139.4326257134866</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>60.29709682323551</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33353,28 +33353,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N31" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,43 +33417,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P32" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O33" t="n">
-        <v>177.5954266578334</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,25 +33593,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33751,25 +33751,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P36" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
         <v>205.8702969983122</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34222,28 +34222,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34795,10 +34795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>66.7110499631047</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>543.5994944994187</v>
+        <v>219.4743295459895</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>543.5994944994187</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>323.9209869390935</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>323.9209869390935</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,10 +36992,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L31" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M31" t="n">
         <v>146.3614835535656</v>
@@ -37004,10 +37004,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P32" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>428.8615014901185</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37241,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P36" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
